--- a/ls/src/com/ul/ls/resources/testData.xlsx
+++ b/ls/src/com/ul/ls/resources/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ls\src\com\ul\ls\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1FAB0A-2F22-4F64-904E-C96E713FA452}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0707A11-0AEB-4F89-B4E5-A52EA3F8A0C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>auto</t>
+  </si>
+  <si>
+    <t>S, Madhu (04282020)</t>
+  </si>
+  <si>
+    <t>Resource_Title</t>
+  </si>
+  <si>
+    <t>Resource_0601</t>
   </si>
 </sst>
 </file>
@@ -386,23 +395,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="3" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,16 +422,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -433,13 +445,16 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ls/src/com/ul/ls/resources/testData.xlsx
+++ b/ls/src/com/ul/ls/resources/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ls\src\com\ul\ls\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0707A11-0AEB-4F89-B4E5-A52EA3F8A0C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00153E7-8141-4B0F-A35C-C9A435A5560D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -57,16 +57,19 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>auto</t>
-  </si>
-  <si>
     <t>S, Madhu (04282020)</t>
   </si>
   <si>
     <t>Resource_Title</t>
   </si>
   <si>
-    <t>Resource_0601</t>
+    <t>Course_Type</t>
+  </si>
+  <si>
+    <t>Online0605</t>
+  </si>
+  <si>
+    <t>Resource_0605</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,12 +409,13 @@
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,19 +426,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -445,16 +452,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ls/src/com/ul/ls/resources/testData.xlsx
+++ b/ls/src/com/ul/ls/resources/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ls\src\com\ul\ls\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00153E7-8141-4B0F-A35C-C9A435A5560D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E433F310-D6EB-4827-9280-FB44B6126930}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>Online0605</t>
   </si>
   <si>
-    <t>Resource_0605</t>
+    <t>Resource_06084</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ls/src/com/ul/ls/resources/testData.xlsx
+++ b/ls/src/com/ul/ls/resources/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ls\src\com\ul\ls\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E433F310-D6EB-4827-9280-FB44B6126930}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A02846-FFB1-4DD2-A5A1-18666945F0A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Resource_06084</t>
+  </si>
+  <si>
+    <t>TC2076</t>
+  </si>
+  <si>
+    <t>Online_06123</t>
   </si>
 </sst>
 </file>
@@ -398,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,9 +473,30 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{9E746316-7D07-4BCD-BFF7-9909362ECF80}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{74819DF8-9A06-4BDE-8520-6FD2D644CB0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ls/src/com/ul/ls/resources/testData.xlsx
+++ b/ls/src/com/ul/ls/resources/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ls\src\com\ul\ls\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A02846-FFB1-4DD2-A5A1-18666945F0A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F201B9-E346-4336-9452-BF06C6761FDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -69,13 +69,13 @@
     <t>Online0605</t>
   </si>
   <si>
-    <t>Resource_06084</t>
-  </si>
-  <si>
     <t>TC2076</t>
   </si>
   <si>
-    <t>Online_06123</t>
+    <t>Resource_0623</t>
+  </si>
+  <si>
+    <t>Online_0623</t>
   </si>
 </sst>
 </file>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>

--- a/ls/src/com/ul/ls/resources/testData.xlsx
+++ b/ls/src/com/ul/ls/resources/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ls\src\com\ul\ls\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F201B9-E346-4336-9452-BF06C6761FDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6934192A-40C8-4CF5-8C69-648A67305F05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>name</t>
   </si>
@@ -66,16 +66,16 @@
     <t>Course_Type</t>
   </si>
   <si>
+    <t>TC2076</t>
+  </si>
+  <si>
+    <t>Resource_0804</t>
+  </si>
+  <si>
+    <t>Online_0804</t>
+  </si>
+  <si>
     <t>Online0605</t>
-  </si>
-  <si>
-    <t>TC2076</t>
-  </si>
-  <si>
-    <t>Resource_0623</t>
-  </si>
-  <si>
-    <t>Online_0623</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,13 +458,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -484,7 +484,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>

--- a/ls/src/com/ul/ls/resources/testData.xlsx
+++ b/ls/src/com/ul/ls/resources/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ls\src\com\ul\ls\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6934192A-40C8-4CF5-8C69-648A67305F05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CD83DB-9C4C-4ACC-8CDD-E1EE694C5D2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,13 +69,13 @@
     <t>TC2076</t>
   </si>
   <si>
-    <t>Resource_0804</t>
-  </si>
-  <si>
-    <t>Online_0804</t>
-  </si>
-  <si>
     <t>Online0605</t>
+  </si>
+  <si>
+    <t>Resource_08043</t>
+  </si>
+  <si>
+    <t>Online_08043</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,13 +458,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -484,10 +484,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
